--- a/target/test-classes/com/orangehrm/app/testData/TestData.xlsx
+++ b/target/test-classes/com/orangehrm/app/testData/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>DependencyName</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Child</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>BCD</t>
@@ -402,7 +399,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,13 +432,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
